--- a/Reference file.xlsx
+++ b/Reference file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhas\Downloads\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhas\Documents\GitHub\replication_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{441A9B39-F2D2-4BD0-8515-A54B0AD7B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7ACC90-0963-473D-AF60-12776D6A0098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{A3B23085-686E-442E-8807-3F3B8900E684}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A3B23085-686E-442E-8807-3F3B8900E684}"/>
   </bookViews>
   <sheets>
     <sheet name="References used" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="1477">
   <si>
     <t>Implementation of smart elevator system based on wireless multi-hop AdHoc sensor networks</t>
   </si>
@@ -4629,6 +4629,24 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>Transport, Energy efficiency</t>
+  </si>
+  <si>
+    <t>HBE Energy efficiency</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -5069,7 +5087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5453,6 +5471,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5473,44 +5525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5599,6 +5613,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-614D-4D3B-B6B0-CF64FF98378B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5642,6 +5661,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-614D-4D3B-B6B0-CF64FF98378B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5661,6 +5685,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-614D-4D3B-B6B0-CF64FF98378B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5680,6 +5709,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-614D-4D3B-B6B0-CF64FF98378B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5699,6 +5733,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-614D-4D3B-B6B0-CF64FF98378B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5720,6 +5759,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-614D-4D3B-B6B0-CF64FF98378B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5977,37 +6021,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -6126,28 +6140,32 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'References used'!$H$2:$H$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'References used'!$H$2:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'References used'!$H$3:$H$8</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Standards from authorities</c:v>
+                  <c:v>ACM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACM</c:v>
+                  <c:v>ScienceDirect</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ScienceDirect</c:v>
+                  <c:v>ResearchGate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ResearchGate</c:v>
+                  <c:v>IEEE Xplore</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>IEEE Xplore</c:v>
+                  <c:v>Springer</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Springer</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Other (Snowballing)</c:v>
                 </c:pt>
               </c:strCache>
@@ -6155,29 +6173,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'References used'!$I$2:$I$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'References used'!$I$2:$I$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'References used'!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
@@ -8099,8 +8121,8 @@
   </sheetPr>
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8129,7 +8151,7 @@
       <c r="E1" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="158" t="s">
         <v>1468</v>
       </c>
       <c r="I1" t="s">
@@ -8143,7 +8165,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="154" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="77" t="s">
@@ -8154,6 +8176,9 @@
       </c>
       <c r="E2" s="76" t="s">
         <v>393</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1473</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="19" t="s">
@@ -8162,7 +8187,7 @@
       <c r="I2">
         <v>15</v>
       </c>
-      <c r="J2" s="166">
+      <c r="J2" s="157">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -8170,7 +8195,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="154" t="s">
         <v>350</v>
       </c>
       <c r="C3" s="77" t="s">
@@ -8181,6 +8206,9 @@
       </c>
       <c r="E3" s="76" t="s">
         <v>394</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1473</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="4" t="s">
@@ -8190,7 +8218,7 @@
         <f>SUM(69+42)</f>
         <v>111</v>
       </c>
-      <c r="J3" s="166">
+      <c r="J3" s="157">
         <v>0.54</v>
       </c>
     </row>
@@ -8198,7 +8226,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="154" t="s">
         <v>344</v>
       </c>
       <c r="C4" s="77" t="s">
@@ -8209,6 +8237,9 @@
       </c>
       <c r="E4" s="76" t="s">
         <v>381</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1473</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="15" t="s">
@@ -8217,7 +8248,7 @@
       <c r="I4">
         <v>23</v>
       </c>
-      <c r="J4" s="166">
+      <c r="J4" s="157">
         <v>0.11</v>
       </c>
     </row>
@@ -8225,7 +8256,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="154" t="s">
         <v>270</v>
       </c>
       <c r="C5" s="77" t="s">
@@ -8236,6 +8267,9 @@
       </c>
       <c r="E5" s="76" t="s">
         <v>390</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1473</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="17" t="s">
@@ -8244,7 +8278,7 @@
       <c r="I5">
         <v>15</v>
       </c>
-      <c r="J5" s="166">
+      <c r="J5" s="157">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -8252,7 +8286,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="154" t="s">
         <v>273</v>
       </c>
       <c r="C6" s="77" t="s">
@@ -8263,6 +8297,9 @@
       </c>
       <c r="E6" s="76" t="s">
         <v>370</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1473</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="12" t="s">
@@ -8271,7 +8308,7 @@
       <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="157">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -8279,7 +8316,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="154" t="s">
         <v>238</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -8290,6 +8327,9 @@
       </c>
       <c r="E7" s="76" t="s">
         <v>382</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1473</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37" t="s">
@@ -8298,7 +8338,7 @@
       <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" s="166">
+      <c r="J7" s="157">
         <v>0.04</v>
       </c>
     </row>
@@ -8306,7 +8346,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="154" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="77" t="s">
@@ -8318,13 +8358,16 @@
       <c r="E8" s="76" t="s">
         <v>382</v>
       </c>
+      <c r="F8" t="s">
+        <v>1473</v>
+      </c>
       <c r="H8" t="s">
         <v>753</v>
       </c>
       <c r="I8">
         <v>21</v>
       </c>
-      <c r="J8" s="166">
+      <c r="J8" s="157">
         <v>0.1</v>
       </c>
     </row>
@@ -8332,7 +8375,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="154" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="77" t="s">
@@ -8343,6 +8386,9 @@
       </c>
       <c r="E9" s="76" t="s">
         <v>382</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1473</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>750</v>
@@ -8356,7 +8402,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="154" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="77" t="s">
@@ -8367,13 +8413,16 @@
       </c>
       <c r="E10" s="76" t="s">
         <v>381</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="154" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="77" t="s">
@@ -8384,13 +8433,16 @@
       </c>
       <c r="E11" s="76" t="s">
         <v>381</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="154" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="77" t="s">
@@ -8401,13 +8453,16 @@
       </c>
       <c r="E12" s="76" t="s">
         <v>379</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="154" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="77" t="s">
@@ -8418,13 +8473,16 @@
       </c>
       <c r="E13" s="76" t="s">
         <v>372</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="154" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="77" t="s">
@@ -8435,13 +8493,16 @@
       </c>
       <c r="E14" s="76" t="s">
         <v>372</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="154" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="77" t="s">
@@ -8452,13 +8513,16 @@
       </c>
       <c r="E15" s="76" t="s">
         <v>372</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="154" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="77" t="s">
@@ -8469,13 +8533,16 @@
       </c>
       <c r="E16" s="76" t="s">
         <v>380</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="154" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="39" t="s">
@@ -8492,7 +8559,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="39" t="s">
@@ -8509,7 +8576,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="154" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -8526,7 +8593,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="154" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -8543,7 +8610,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="154" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -8560,7 +8627,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="154" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -8577,7 +8644,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="154" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="39" t="s">
@@ -8594,7 +8661,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="154" t="s">
         <v>807</v>
       </c>
       <c r="C24" s="39" t="s">
@@ -8611,7 +8678,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="154" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -8628,7 +8695,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="154" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -8645,7 +8712,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="154" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -8662,7 +8729,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="154" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="39" t="s">
@@ -8679,7 +8746,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="163" t="s">
+      <c r="B29" s="154" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -8696,7 +8763,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="154" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="39" t="s">
@@ -8713,7 +8780,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="154" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -8730,7 +8797,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="154" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="39" t="s">
@@ -8747,7 +8814,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="154" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -8764,7 +8831,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="154" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="39" t="s">
@@ -8781,7 +8848,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="154" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="39" t="s">
@@ -8798,7 +8865,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="154" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="39" t="s">
@@ -8815,7 +8882,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="154" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -8832,7 +8899,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="154" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="39" t="s">
@@ -8849,7 +8916,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="154" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -8866,7 +8933,7 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="154" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="39" t="s">
@@ -8883,7 +8950,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="154" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="39" t="s">
@@ -8900,7 +8967,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="154" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -8917,7 +8984,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="154" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="39" t="s">
@@ -8934,7 +9001,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="154" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="39" t="s">
@@ -8951,7 +9018,7 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="154" t="s">
         <v>132</v>
       </c>
       <c r="C45" s="39" t="s">
@@ -8968,7 +9035,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="154" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="39" t="s">
@@ -8985,7 +9052,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="154" t="s">
         <v>136</v>
       </c>
       <c r="C47" s="39" t="s">
@@ -9002,7 +9069,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="154" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -9019,7 +9086,7 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="154" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="39" t="s">
@@ -9036,7 +9103,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="154" t="s">
         <v>147</v>
       </c>
       <c r="C50" s="39" t="s">
@@ -9053,7 +9120,7 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="154" t="s">
         <v>149</v>
       </c>
       <c r="C51" s="39" t="s">
@@ -9070,7 +9137,7 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="154" t="s">
         <v>151</v>
       </c>
       <c r="C52" s="39" t="s">
@@ -9087,7 +9154,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="154" t="s">
         <v>164</v>
       </c>
       <c r="C53" s="39" t="s">
@@ -9104,7 +9171,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="154" t="s">
         <v>166</v>
       </c>
       <c r="C54" s="39" t="s">
@@ -9121,7 +9188,7 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="163" t="s">
+      <c r="B55" s="154" t="s">
         <v>170</v>
       </c>
       <c r="C55" s="39" t="s">
@@ -9138,7 +9205,7 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="154" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="39" t="s">
@@ -9155,7 +9222,7 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="154" t="s">
         <v>176</v>
       </c>
       <c r="C57" s="39" t="s">
@@ -9172,7 +9239,7 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="154" t="s">
         <v>180</v>
       </c>
       <c r="C58" s="39" t="s">
@@ -9189,7 +9256,7 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="163" t="s">
+      <c r="B59" s="154" t="s">
         <v>196</v>
       </c>
       <c r="C59" s="39" t="s">
@@ -9206,7 +9273,7 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="154" t="s">
         <v>198</v>
       </c>
       <c r="C60" s="39" t="s">
@@ -9223,7 +9290,7 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="163" t="s">
+      <c r="B61" s="154" t="s">
         <v>205</v>
       </c>
       <c r="C61" s="39" t="s">
@@ -9240,7 +9307,7 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="163" t="s">
+      <c r="B62" s="154" t="s">
         <v>211</v>
       </c>
       <c r="C62" s="39" t="s">
@@ -9257,7 +9324,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="163" t="s">
+      <c r="B63" s="154" t="s">
         <v>213</v>
       </c>
       <c r="C63" s="39" t="s">
@@ -9274,7 +9341,7 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="163" t="s">
+      <c r="B64" s="154" t="s">
         <v>215</v>
       </c>
       <c r="C64" s="39" t="s">
@@ -9291,7 +9358,7 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="163" t="s">
+      <c r="B65" s="154" t="s">
         <v>222</v>
       </c>
       <c r="C65" s="39" t="s">
@@ -9308,7 +9375,7 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="163" t="s">
+      <c r="B66" s="154" t="s">
         <v>224</v>
       </c>
       <c r="C66" s="39" t="s">
@@ -9325,7 +9392,7 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="163" t="s">
+      <c r="B67" s="154" t="s">
         <v>230</v>
       </c>
       <c r="C67" s="39" t="s">
@@ -9342,7 +9409,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="163" t="s">
+      <c r="B68" s="154" t="s">
         <v>240</v>
       </c>
       <c r="C68" s="39" t="s">
@@ -9359,7 +9426,7 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="163" t="s">
+      <c r="B69" s="154" t="s">
         <v>246</v>
       </c>
       <c r="C69" s="39" t="s">
@@ -9376,7 +9443,7 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="163" t="s">
+      <c r="B70" s="154" t="s">
         <v>250</v>
       </c>
       <c r="C70" s="39" t="s">
@@ -9393,7 +9460,7 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="163" t="s">
+      <c r="B71" s="154" t="s">
         <v>256</v>
       </c>
       <c r="C71" s="39" t="s">
@@ -9410,7 +9477,7 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="163" t="s">
+      <c r="B72" s="154" t="s">
         <v>275</v>
       </c>
       <c r="C72" s="39" t="s">
@@ -9427,7 +9494,7 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="163" t="s">
+      <c r="B73" s="154" t="s">
         <v>278</v>
       </c>
       <c r="C73" s="39" t="s">
@@ -9444,7 +9511,7 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="163" t="s">
+      <c r="B74" s="154" t="s">
         <v>280</v>
       </c>
       <c r="C74" s="39" t="s">
@@ -9461,7 +9528,7 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="163" t="s">
+      <c r="B75" s="154" t="s">
         <v>286</v>
       </c>
       <c r="C75" s="39" t="s">
@@ -9478,7 +9545,7 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="163" t="s">
+      <c r="B76" s="154" t="s">
         <v>294</v>
       </c>
       <c r="C76" s="39" t="s">
@@ -9495,7 +9562,7 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="163" t="s">
+      <c r="B77" s="154" t="s">
         <v>296</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -9512,7 +9579,7 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="163" t="s">
+      <c r="B78" s="154" t="s">
         <v>300</v>
       </c>
       <c r="C78" s="39" t="s">
@@ -9529,7 +9596,7 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="163" t="s">
+      <c r="B79" s="154" t="s">
         <v>303</v>
       </c>
       <c r="C79" s="39" t="s">
@@ -9546,7 +9613,7 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="163" t="s">
+      <c r="B80" s="154" t="s">
         <v>306</v>
       </c>
       <c r="C80" s="39" t="s">
@@ -9559,11 +9626,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="163" t="s">
+      <c r="B81" s="154" t="s">
         <v>312</v>
       </c>
       <c r="C81" s="39" t="s">
@@ -9576,11 +9643,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="163" t="s">
+      <c r="B82" s="154" t="s">
         <v>322</v>
       </c>
       <c r="C82" s="39" t="s">
@@ -9593,11 +9660,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="163" t="s">
+      <c r="B83" s="154" t="s">
         <v>324</v>
       </c>
       <c r="C83" s="39" t="s">
@@ -9610,11 +9677,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="163" t="s">
+      <c r="B84" s="154" t="s">
         <v>342</v>
       </c>
       <c r="C84" s="39" t="s">
@@ -9627,11 +9694,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="163" t="s">
+      <c r="B85" s="154" t="s">
         <v>334</v>
       </c>
       <c r="C85" s="39" t="s">
@@ -9644,11 +9711,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="163" t="s">
+      <c r="B86" s="154" t="s">
         <v>755</v>
       </c>
       <c r="C86" s="78" t="s">
@@ -9660,12 +9727,15 @@
       <c r="E86" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="15" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="163" t="s">
+      <c r="B87" s="154" t="s">
         <v>298</v>
       </c>
       <c r="C87" s="41" t="s">
@@ -9677,12 +9747,15 @@
       <c r="E87" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="163" t="s">
+      <c r="B88" s="154" t="s">
         <v>268</v>
       </c>
       <c r="C88" s="41" t="s">
@@ -9694,12 +9767,15 @@
       <c r="E88" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="163" t="s">
+      <c r="B89" s="154" t="s">
         <v>288</v>
       </c>
       <c r="C89" s="41" t="s">
@@ -9711,12 +9787,15 @@
       <c r="E89" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="163" t="s">
+      <c r="B90" s="154" t="s">
         <v>391</v>
       </c>
       <c r="C90" s="41" t="s">
@@ -9728,12 +9807,15 @@
       <c r="E90" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="163" t="s">
+      <c r="B91" s="154" t="s">
         <v>260</v>
       </c>
       <c r="C91" s="41" t="s">
@@ -9745,12 +9827,15 @@
       <c r="E91" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="163" t="s">
+      <c r="B92" s="154" t="s">
         <v>248</v>
       </c>
       <c r="C92" s="41" t="s">
@@ -9762,12 +9847,15 @@
       <c r="E92" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="163" t="s">
+      <c r="B93" s="154" t="s">
         <v>234</v>
       </c>
       <c r="C93" s="41" t="s">
@@ -9779,12 +9867,15 @@
       <c r="E93" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="163" t="s">
+      <c r="B94" s="154" t="s">
         <v>186</v>
       </c>
       <c r="C94" s="41" t="s">
@@ -9796,12 +9887,15 @@
       <c r="E94" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="163" t="s">
+      <c r="B95" s="154" t="s">
         <v>188</v>
       </c>
       <c r="C95" s="41" t="s">
@@ -9813,12 +9907,15 @@
       <c r="E95" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="163" t="s">
+      <c r="B96" s="154" t="s">
         <v>190</v>
       </c>
       <c r="C96" s="41" t="s">
@@ -9830,12 +9927,15 @@
       <c r="E96" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="163" t="s">
+      <c r="B97" s="154" t="s">
         <v>192</v>
       </c>
       <c r="C97" s="41" t="s">
@@ -9847,12 +9947,15 @@
       <c r="E97" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="163" t="s">
+      <c r="B98" s="154" t="s">
         <v>194</v>
       </c>
       <c r="C98" s="41" t="s">
@@ -9864,12 +9967,15 @@
       <c r="E98" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="163" t="s">
+      <c r="B99" s="154" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="41" t="s">
@@ -9881,12 +9987,15 @@
       <c r="E99" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="163" t="s">
+      <c r="B100" s="154" t="s">
         <v>115</v>
       </c>
       <c r="C100" s="41" t="s">
@@ -9898,12 +10007,15 @@
       <c r="E100" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="163" t="s">
+      <c r="B101" s="154" t="s">
         <v>178</v>
       </c>
       <c r="C101" s="41" t="s">
@@ -9915,12 +10027,15 @@
       <c r="E101" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="163" t="s">
+      <c r="B102" s="154" t="s">
         <v>168</v>
       </c>
       <c r="C102" s="41" t="s">
@@ -9932,12 +10047,15 @@
       <c r="E102" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="163" t="s">
+      <c r="B103" s="154" t="s">
         <v>1464</v>
       </c>
       <c r="C103" s="41" t="s">
@@ -9949,12 +10067,15 @@
       <c r="E103" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="163" t="s">
+      <c r="B104" s="154" t="s">
         <v>156</v>
       </c>
       <c r="C104" s="41" t="s">
@@ -9966,12 +10087,15 @@
       <c r="E104" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="163" t="s">
+      <c r="B105" s="154" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="41" t="s">
@@ -9983,12 +10107,15 @@
       <c r="E105" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="163" t="s">
+      <c r="B106" s="154" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="41" t="s">
@@ -10000,12 +10127,15 @@
       <c r="E106" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="163" t="s">
+      <c r="B107" s="154" t="s">
         <v>56</v>
       </c>
       <c r="C107" s="41" t="s">
@@ -10017,12 +10147,15 @@
       <c r="E107" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="163" t="s">
+      <c r="B108" s="154" t="s">
         <v>99</v>
       </c>
       <c r="C108" s="41" t="s">
@@ -10034,12 +10167,15 @@
       <c r="E108" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="163" t="s">
+      <c r="B109" s="154" t="s">
         <v>336</v>
       </c>
       <c r="C109" s="42" t="s">
@@ -10051,12 +10187,15 @@
       <c r="E109" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="163" t="s">
+      <c r="B110" s="154" t="s">
         <v>338</v>
       </c>
       <c r="C110" s="42" t="s">
@@ -10068,12 +10207,15 @@
       <c r="E110" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="163" t="s">
+      <c r="B111" s="154" t="s">
         <v>340</v>
       </c>
       <c r="C111" s="42" t="s">
@@ -10085,12 +10227,15 @@
       <c r="E111" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="163" t="s">
+      <c r="B112" s="154" t="s">
         <v>330</v>
       </c>
       <c r="C112" s="42" t="s">
@@ -10102,12 +10247,15 @@
       <c r="E112" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="163" t="s">
+      <c r="B113" s="154" t="s">
         <v>31</v>
       </c>
       <c r="C113" s="42" t="s">
@@ -10119,12 +10267,15 @@
       <c r="E113" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="163" t="s">
+      <c r="B114" s="154" t="s">
         <v>346</v>
       </c>
       <c r="C114" s="42" t="s">
@@ -10136,12 +10287,15 @@
       <c r="E114" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="163" t="s">
+      <c r="B115" s="154" t="s">
         <v>220</v>
       </c>
       <c r="C115" s="42" t="s">
@@ -10153,12 +10307,15 @@
       <c r="E115" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="163" t="s">
+      <c r="B116" s="154" t="s">
         <v>44</v>
       </c>
       <c r="C116" s="42" t="s">
@@ -10170,12 +10327,15 @@
       <c r="E116" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="163" t="s">
+      <c r="B117" s="154" t="s">
         <v>266</v>
       </c>
       <c r="C117" s="42" t="s">
@@ -10187,12 +10347,15 @@
       <c r="E117" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="163" t="s">
+      <c r="B118" s="154" t="s">
         <v>75</v>
       </c>
       <c r="C118" s="42" t="s">
@@ -10204,12 +10367,15 @@
       <c r="E118" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="163" t="s">
+      <c r="B119" s="154" t="s">
         <v>145</v>
       </c>
       <c r="C119" s="42" t="s">
@@ -10221,12 +10387,15 @@
       <c r="E119" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="163" t="s">
+      <c r="B120" s="154" t="s">
         <v>83</v>
       </c>
       <c r="C120" s="42" t="s">
@@ -10238,12 +10407,15 @@
       <c r="E120" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="163" t="s">
+      <c r="B121" s="154" t="s">
         <v>184</v>
       </c>
       <c r="C121" s="42" t="s">
@@ -10255,12 +10427,15 @@
       <c r="E121" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="163" t="s">
+      <c r="B122" s="154" t="s">
         <v>292</v>
       </c>
       <c r="C122" s="42" t="s">
@@ -10272,12 +10447,15 @@
       <c r="E122" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="163" t="s">
+      <c r="B123" s="154" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -10289,12 +10467,15 @@
       <c r="E123" s="36" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="17" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="163" t="s">
+      <c r="B124" s="154" t="s">
         <v>58</v>
       </c>
       <c r="C124" s="40" t="s">
@@ -10307,11 +10488,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="163" t="s">
+      <c r="B125" s="154" t="s">
         <v>77</v>
       </c>
       <c r="C125" s="40" t="s">
@@ -10324,11 +10505,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="163" t="s">
+      <c r="B126" s="154" t="s">
         <v>308</v>
       </c>
       <c r="C126" s="40" t="s">
@@ -10341,11 +10522,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="163" t="s">
+      <c r="B127" s="154" t="s">
         <v>320</v>
       </c>
       <c r="C127" s="40" t="s">
@@ -10358,11 +10539,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="163" t="s">
+      <c r="B128" s="154" t="s">
         <v>236</v>
       </c>
       <c r="C128" s="40" t="s">
@@ -10375,11 +10556,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="163" t="s">
+      <c r="B129" s="154" t="s">
         <v>228</v>
       </c>
       <c r="C129" s="40" t="s">
@@ -10392,11 +10573,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="163">
+      <c r="B130" s="154">
         <v>6144930</v>
       </c>
       <c r="C130" s="40" t="s">
@@ -10409,11 +10590,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="163">
+      <c r="B131" s="154">
         <v>7276740</v>
       </c>
       <c r="C131" s="40" t="s">
@@ -10426,11 +10607,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="163">
+      <c r="B132" s="154">
         <v>7805265</v>
       </c>
       <c r="C132" s="40" t="s">
@@ -10443,11 +10624,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="163">
+      <c r="B133" s="154">
         <v>7845449</v>
       </c>
       <c r="C133" s="40" t="s">
@@ -10460,11 +10641,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="163">
+      <c r="B134" s="154">
         <v>8454403</v>
       </c>
       <c r="C134" s="40" t="s">
@@ -10477,11 +10658,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="163">
+      <c r="B135" s="154">
         <v>8564527</v>
       </c>
       <c r="C135" s="40" t="s">
@@ -10494,11 +10675,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="163">
+      <c r="B136" s="154">
         <v>8767171</v>
       </c>
       <c r="C136" s="40" t="s">
@@ -10511,11 +10692,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="165" t="s">
+      <c r="B137" s="156" t="s">
         <v>1462</v>
       </c>
       <c r="C137" s="40" t="s">
@@ -10528,11 +10709,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="163">
+      <c r="B138" s="154">
         <v>8782356</v>
       </c>
       <c r="C138" s="40" t="s">
@@ -10545,11 +10726,11 @@
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="163" t="s">
+      <c r="B139" s="154" t="s">
         <v>262</v>
       </c>
       <c r="C139" s="43" t="s">
@@ -10561,12 +10742,15 @@
       <c r="E139" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="163" t="s">
+      <c r="B140" s="154" t="s">
         <v>326</v>
       </c>
       <c r="C140" s="43" t="s">
@@ -10578,12 +10762,15 @@
       <c r="E140" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="163" t="s">
+      <c r="B141" s="154" t="s">
         <v>314</v>
       </c>
       <c r="C141" s="43" t="s">
@@ -10595,12 +10782,15 @@
       <c r="E141" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="163" t="s">
+      <c r="B142" s="154" t="s">
         <v>242</v>
       </c>
       <c r="C142" s="43" t="s">
@@ -10612,12 +10802,15 @@
       <c r="E142" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="163" t="s">
+      <c r="B143" s="154" t="s">
         <v>232</v>
       </c>
       <c r="C143" s="43" t="s">
@@ -10629,12 +10822,15 @@
       <c r="E143" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="163" t="s">
+      <c r="B144" s="154" t="s">
         <v>89</v>
       </c>
       <c r="C144" s="43" t="s">
@@ -10646,12 +10842,15 @@
       <c r="E144" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="163" t="s">
+      <c r="B145" s="154" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="43" t="s">
@@ -10663,12 +10862,15 @@
       <c r="E145" s="37" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="163" t="s">
+      <c r="B146" s="154" t="s">
         <v>310</v>
       </c>
       <c r="C146" s="44" t="s">
@@ -10680,12 +10882,15 @@
       <c r="E146" s="38" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F146" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="163" t="s">
+      <c r="B147" s="154" t="s">
         <v>392</v>
       </c>
       <c r="C147" s="44" t="s">
@@ -10697,12 +10902,15 @@
       <c r="E147" s="38" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F147" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="163" t="s">
+      <c r="B148" s="154" t="s">
         <v>258</v>
       </c>
       <c r="C148" s="44" t="s">
@@ -10714,12 +10922,15 @@
       <c r="E148" s="38" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F148" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="163" t="s">
+      <c r="B149" s="154" t="s">
         <v>252</v>
       </c>
       <c r="C149" s="44" t="s">
@@ -10731,12 +10942,15 @@
       <c r="E149" s="38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F149" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="163" t="s">
+      <c r="B150" s="154" t="s">
         <v>254</v>
       </c>
       <c r="C150" s="44" t="s">
@@ -10748,12 +10962,15 @@
       <c r="E150" s="38" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F150" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="163" t="s">
+      <c r="B151" s="154" t="s">
         <v>264</v>
       </c>
       <c r="C151" s="44" t="s">
@@ -10765,12 +10982,15 @@
       <c r="E151" s="38" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F151" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="163" t="s">
+      <c r="B152" s="154" t="s">
         <v>203</v>
       </c>
       <c r="C152" s="44" t="s">
@@ -10782,12 +11002,15 @@
       <c r="E152" s="38" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F152" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="163" t="s">
+      <c r="B153" s="154" t="s">
         <v>158</v>
       </c>
       <c r="C153" s="44" t="s">
@@ -10799,12 +11022,15 @@
       <c r="E153" s="38" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F153" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="163" t="s">
+      <c r="B154" s="154" t="s">
         <v>160</v>
       </c>
       <c r="C154" s="44" t="s">
@@ -10816,12 +11042,15 @@
       <c r="E154" s="38" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F154" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="163" t="s">
+      <c r="B155" s="154" t="s">
         <v>162</v>
       </c>
       <c r="C155" s="44" t="s">
@@ -10833,12 +11062,15 @@
       <c r="E155" s="38" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F155" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="163" t="s">
+      <c r="B156" s="154" t="s">
         <v>172</v>
       </c>
       <c r="C156" s="44" t="s">
@@ -10850,46 +11082,55 @@
       <c r="E156" s="38" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="163" t="s">
+      <c r="B157" s="154" t="s">
         <v>153</v>
       </c>
       <c r="C157" s="44" t="s">
         <v>154</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>436</v>
+        <v>1471</v>
       </c>
       <c r="E157" s="38" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F157" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="163" t="s">
+      <c r="B158" s="154" t="s">
         <v>282</v>
       </c>
       <c r="C158" s="44" t="s">
         <v>283</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>433</v>
+        <v>1472</v>
       </c>
       <c r="E158" s="38" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F158" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="163" t="s">
+      <c r="B159" s="154" t="s">
         <v>81</v>
       </c>
       <c r="C159" s="44" t="s">
@@ -10901,12 +11142,15 @@
       <c r="E159" s="38" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F159" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="163" t="s">
+      <c r="B160" s="154" t="s">
         <v>101</v>
       </c>
       <c r="C160" s="44" t="s">
@@ -10918,12 +11162,15 @@
       <c r="E160" s="38" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F160" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="163" t="s">
+      <c r="B161" s="154" t="s">
         <v>73</v>
       </c>
       <c r="C161" s="44" t="s">
@@ -10935,12 +11182,15 @@
       <c r="E161" s="38" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="163" t="s">
+      <c r="B162" s="154" t="s">
         <v>54</v>
       </c>
       <c r="C162" s="44" t="s">
@@ -10952,12 +11202,15 @@
       <c r="E162" s="38" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F162" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="163" t="s">
+      <c r="B163" s="154" t="s">
         <v>244</v>
       </c>
       <c r="C163" s="44" t="s">
@@ -10969,12 +11222,15 @@
       <c r="E163" s="38" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F163" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="163" t="s">
+      <c r="B164" s="154" t="s">
         <v>23</v>
       </c>
       <c r="C164" s="44" t="s">
@@ -10986,12 +11242,15 @@
       <c r="E164" s="38" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F164" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="163" t="s">
+      <c r="B165" s="154" t="s">
         <v>758</v>
       </c>
       <c r="C165" s="44" t="s">
@@ -11003,12 +11262,15 @@
       <c r="E165" s="38" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F165" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="163" t="s">
+      <c r="B166" s="154" t="s">
         <v>764</v>
       </c>
       <c r="C166" s="44" t="s">
@@ -11020,12 +11282,15 @@
       <c r="E166" s="38" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F166" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="163" t="s">
+      <c r="B167" s="154" t="s">
         <v>969</v>
       </c>
       <c r="C167" s="39" t="s">
@@ -11038,11 +11303,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="163" t="s">
+      <c r="B168" s="154" t="s">
         <v>1007</v>
       </c>
       <c r="C168" s="39" t="s">
@@ -11055,11 +11320,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="163" t="s">
+      <c r="B169" s="154" t="s">
         <v>889</v>
       </c>
       <c r="C169" s="23" t="s">
@@ -11072,11 +11337,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="163" t="s">
+      <c r="B170" s="154" t="s">
         <v>1399</v>
       </c>
       <c r="C170" s="23" t="s">
@@ -11089,11 +11354,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="163" t="s">
+      <c r="B171" s="154" t="s">
         <v>926</v>
       </c>
       <c r="C171" s="23" t="s">
@@ -11106,11 +11371,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="163" t="s">
+      <c r="B172" s="154" t="s">
         <v>1400</v>
       </c>
       <c r="C172" s="23" t="s">
@@ -11123,11 +11388,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="163" t="s">
+      <c r="B173" s="154" t="s">
         <v>958</v>
       </c>
       <c r="C173" s="23" t="s">
@@ -11140,11 +11405,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="163" t="s">
+      <c r="B174" s="154" t="s">
         <v>931</v>
       </c>
       <c r="C174" s="23" t="s">
@@ -11157,11 +11422,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="163" t="s">
+      <c r="B175" s="154" t="s">
         <v>897</v>
       </c>
       <c r="C175" s="23" t="s">
@@ -11174,11 +11439,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="163" t="s">
+      <c r="B176" s="154" t="s">
         <v>922</v>
       </c>
       <c r="C176" s="23" t="s">
@@ -11195,7 +11460,7 @@
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="163" t="s">
+      <c r="B177" s="154" t="s">
         <v>941</v>
       </c>
       <c r="C177" s="23" t="s">
@@ -11212,7 +11477,7 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="163" t="s">
+      <c r="B178" s="154" t="s">
         <v>950</v>
       </c>
       <c r="C178" s="23" t="s">
@@ -11229,7 +11494,7 @@
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="163" t="s">
+      <c r="B179" s="154" t="s">
         <v>919</v>
       </c>
       <c r="C179" s="23" t="s">
@@ -11246,7 +11511,7 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="163" t="s">
+      <c r="B180" s="154" t="s">
         <v>893</v>
       </c>
       <c r="C180" s="23" t="s">
@@ -11263,7 +11528,7 @@
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="163" t="s">
+      <c r="B181" s="154" t="s">
         <v>957</v>
       </c>
       <c r="C181" s="23" t="s">
@@ -11280,7 +11545,7 @@
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="163" t="s">
+      <c r="B182" s="154" t="s">
         <v>1008</v>
       </c>
       <c r="C182" s="23" t="s">
@@ -11297,7 +11562,7 @@
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="163" t="s">
+      <c r="B183" s="154" t="s">
         <v>934</v>
       </c>
       <c r="C183" s="23" t="s">
@@ -11314,7 +11579,7 @@
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="163" t="s">
+      <c r="B184" s="154" t="s">
         <v>1005</v>
       </c>
       <c r="C184" s="23" t="s">
@@ -11331,7 +11596,7 @@
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="163" t="s">
+      <c r="B185" s="154" t="s">
         <v>929</v>
       </c>
       <c r="C185" s="23" t="s">
@@ -11348,7 +11613,7 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="163" t="s">
+      <c r="B186" s="154" t="s">
         <v>139</v>
       </c>
       <c r="C186" s="23" t="s">
@@ -11365,7 +11630,7 @@
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="163" t="s">
+      <c r="B187" s="154" t="s">
         <v>920</v>
       </c>
       <c r="C187" s="23" t="s">
@@ -11382,7 +11647,7 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="163" t="s">
+      <c r="B188" s="154" t="s">
         <v>911</v>
       </c>
       <c r="C188" s="23" t="s">
@@ -11399,7 +11664,7 @@
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="163" t="s">
+      <c r="B189" s="154" t="s">
         <v>971</v>
       </c>
       <c r="C189" s="23" t="s">
@@ -11416,7 +11681,7 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="163" t="s">
+      <c r="B190" s="154" t="s">
         <v>935</v>
       </c>
       <c r="C190" s="23" t="s">
@@ -11433,7 +11698,7 @@
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="163" t="s">
+      <c r="B191" s="154" t="s">
         <v>946</v>
       </c>
       <c r="C191" s="23" t="s">
@@ -11450,7 +11715,7 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="163" t="s">
+      <c r="B192" s="154" t="s">
         <v>972</v>
       </c>
       <c r="C192" s="23" t="s">
@@ -11467,7 +11732,7 @@
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="163" t="s">
+      <c r="B193" s="154" t="s">
         <v>928</v>
       </c>
       <c r="C193" s="23" t="s">
@@ -11484,7 +11749,7 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="163" t="s">
+      <c r="B194" s="154" t="s">
         <v>925</v>
       </c>
       <c r="C194" s="23" t="s">
@@ -11501,7 +11766,7 @@
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="163" t="s">
+      <c r="B195" s="154" t="s">
         <v>939</v>
       </c>
       <c r="C195" s="23" t="s">
@@ -11518,7 +11783,7 @@
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="163" t="s">
+      <c r="B196" s="154" t="s">
         <v>891</v>
       </c>
       <c r="C196" s="23" t="s">
@@ -11535,7 +11800,7 @@
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="163" t="s">
+      <c r="B197" s="154" t="s">
         <v>886</v>
       </c>
       <c r="C197" s="23" t="s">
@@ -11552,7 +11817,7 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="163" t="s">
+      <c r="B198" s="154" t="s">
         <v>938</v>
       </c>
       <c r="C198" s="23" t="s">
@@ -11569,7 +11834,7 @@
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="163" t="s">
+      <c r="B199" s="154" t="s">
         <v>937</v>
       </c>
       <c r="C199" s="23" t="s">
@@ -11586,7 +11851,7 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="163" t="s">
+      <c r="B200" s="154" t="s">
         <v>907</v>
       </c>
       <c r="C200" s="23" t="s">
@@ -11603,7 +11868,7 @@
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="163" t="s">
+      <c r="B201" s="154" t="s">
         <v>912</v>
       </c>
       <c r="C201" s="23" t="s">
@@ -11620,7 +11885,7 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="163" t="s">
+      <c r="B202" s="154" t="s">
         <v>943</v>
       </c>
       <c r="C202" s="23" t="s">
@@ -11637,7 +11902,7 @@
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="163" t="s">
+      <c r="B203" s="154" t="s">
         <v>877</v>
       </c>
       <c r="C203" s="23" t="s">
@@ -11654,7 +11919,7 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="163" t="s">
+      <c r="B204" s="154" t="s">
         <v>945</v>
       </c>
       <c r="C204" s="23" t="s">
@@ -11671,7 +11936,7 @@
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="163" t="s">
+      <c r="B205" s="154" t="s">
         <v>901</v>
       </c>
       <c r="C205" s="23" t="s">
@@ -11688,7 +11953,7 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="163" t="s">
+      <c r="B206" s="154" t="s">
         <v>1401</v>
       </c>
       <c r="C206" s="23" t="s">
@@ -11705,7 +11970,7 @@
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="163" t="s">
+      <c r="B207" s="154" t="s">
         <v>970</v>
       </c>
       <c r="C207" s="23" t="s">
@@ -11722,7 +11987,7 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="163" t="s">
+      <c r="B208" s="154" t="s">
         <v>923</v>
       </c>
       <c r="C208" s="23" t="s">
@@ -11777,24 +12042,24 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="163" t="s">
         <v>973</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="163" t="s">
         <v>974</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="117" t="s">
         <v>473</v>
       </c>
@@ -11804,7 +12069,7 @@
       <c r="F4" s="117" t="s">
         <v>975</v>
       </c>
-      <c r="G4" s="149"/>
+      <c r="G4" s="165"/>
     </row>
     <row r="5" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
@@ -11976,7 +12241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D749F5-9828-4B21-82DA-2B2FA3ED6F56}">
   <dimension ref="B1:G290"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C271" sqref="C271:G290"/>
     </sheetView>
   </sheetViews>
@@ -14756,747 +15021,445 @@
     </row>
     <row r="188" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="189" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C189" s="150"/>
-      <c r="D189" s="151"/>
-      <c r="E189" s="152"/>
-      <c r="F189" s="151"/>
-      <c r="G189" s="153"/>
+      <c r="C189" s="143"/>
+      <c r="D189" s="144"/>
+      <c r="E189" s="145"/>
+      <c r="F189" s="144"/>
+      <c r="G189" s="146"/>
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C190" s="154"/>
-      <c r="D190" s="155"/>
-      <c r="E190" s="156"/>
-      <c r="F190" s="155"/>
-      <c r="G190" s="157" t="s">
+      <c r="C190" s="147"/>
+      <c r="G190" s="148" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="191" spans="3:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="C191" s="154"/>
-      <c r="D191" s="155"/>
-      <c r="E191" s="156"/>
-      <c r="F191" s="155"/>
-      <c r="G191" s="158" t="s">
+      <c r="C191" s="147"/>
+      <c r="G191" s="149" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C192" s="154"/>
-      <c r="D192" s="155"/>
-      <c r="E192" s="156"/>
-      <c r="F192" s="155"/>
-      <c r="G192" s="158"/>
+      <c r="C192" s="147"/>
+      <c r="G192" s="149"/>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C193" s="154"/>
-      <c r="D193" s="155"/>
-      <c r="E193" s="156"/>
-      <c r="F193" s="155"/>
-      <c r="G193" s="158"/>
+      <c r="C193" s="147"/>
+      <c r="G193" s="149"/>
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C194" s="154"/>
-      <c r="D194" s="155"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="155"/>
-      <c r="G194" s="158"/>
+      <c r="C194" s="147"/>
+      <c r="G194" s="149"/>
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C195" s="154"/>
-      <c r="D195" s="155"/>
-      <c r="E195" s="156"/>
-      <c r="F195" s="155"/>
-      <c r="G195" s="158"/>
+      <c r="C195" s="147"/>
+      <c r="G195" s="149"/>
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C196" s="154"/>
-      <c r="D196" s="155"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="155"/>
-      <c r="G196" s="158"/>
+      <c r="C196" s="147"/>
+      <c r="G196" s="149"/>
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C197" s="154"/>
-      <c r="D197" s="155"/>
-      <c r="E197" s="156"/>
-      <c r="F197" s="155"/>
-      <c r="G197" s="158"/>
+      <c r="C197" s="147"/>
+      <c r="G197" s="149"/>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C198" s="154"/>
-      <c r="D198" s="155"/>
-      <c r="E198" s="156"/>
-      <c r="F198" s="155"/>
-      <c r="G198" s="158"/>
+      <c r="C198" s="147"/>
+      <c r="G198" s="149"/>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C199" s="154"/>
-      <c r="D199" s="155"/>
-      <c r="E199" s="156"/>
-      <c r="F199" s="155"/>
-      <c r="G199" s="158"/>
+      <c r="C199" s="147"/>
+      <c r="G199" s="149"/>
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C200" s="154"/>
-      <c r="D200" s="155"/>
-      <c r="E200" s="156"/>
-      <c r="F200" s="155"/>
-      <c r="G200" s="158"/>
+      <c r="C200" s="147"/>
+      <c r="G200" s="149"/>
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C201" s="154"/>
-      <c r="D201" s="155"/>
-      <c r="E201" s="156"/>
-      <c r="F201" s="155"/>
-      <c r="G201" s="158"/>
+      <c r="C201" s="147"/>
+      <c r="G201" s="149"/>
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C202" s="154"/>
-      <c r="D202" s="155"/>
-      <c r="E202" s="156"/>
-      <c r="F202" s="155"/>
-      <c r="G202" s="158"/>
+      <c r="C202" s="147"/>
+      <c r="G202" s="149"/>
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C203" s="154"/>
-      <c r="D203" s="155"/>
-      <c r="E203" s="156"/>
-      <c r="F203" s="155"/>
-      <c r="G203" s="158"/>
+      <c r="C203" s="147"/>
+      <c r="G203" s="149"/>
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C204" s="154"/>
-      <c r="D204" s="155"/>
-      <c r="E204" s="156"/>
-      <c r="F204" s="155"/>
-      <c r="G204" s="158"/>
+      <c r="C204" s="147"/>
+      <c r="G204" s="149"/>
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C205" s="154"/>
-      <c r="D205" s="155"/>
-      <c r="E205" s="156"/>
-      <c r="F205" s="155"/>
-      <c r="G205" s="158"/>
+      <c r="C205" s="147"/>
+      <c r="G205" s="149"/>
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C206" s="154"/>
-      <c r="D206" s="155"/>
-      <c r="E206" s="156"/>
-      <c r="F206" s="155"/>
-      <c r="G206" s="158"/>
+      <c r="C206" s="147"/>
+      <c r="G206" s="149"/>
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C207" s="154"/>
-      <c r="D207" s="155"/>
-      <c r="E207" s="156"/>
-      <c r="F207" s="155"/>
-      <c r="G207" s="158"/>
+      <c r="C207" s="147"/>
+      <c r="G207" s="149"/>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C208" s="154"/>
-      <c r="D208" s="155"/>
-      <c r="E208" s="156"/>
-      <c r="F208" s="155"/>
-      <c r="G208" s="158"/>
+      <c r="C208" s="147"/>
+      <c r="G208" s="149"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C209" s="154"/>
-      <c r="D209" s="155"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="155"/>
-      <c r="G209" s="158"/>
+      <c r="C209" s="147"/>
+      <c r="G209" s="149"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C210" s="154"/>
-      <c r="D210" s="155"/>
-      <c r="E210" s="156"/>
-      <c r="F210" s="155"/>
-      <c r="G210" s="158"/>
+      <c r="C210" s="147"/>
+      <c r="G210" s="149"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C211" s="154"/>
-      <c r="D211" s="155"/>
-      <c r="E211" s="156"/>
-      <c r="F211" s="155"/>
-      <c r="G211" s="158"/>
+      <c r="C211" s="147"/>
+      <c r="G211" s="149"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C212" s="154"/>
-      <c r="D212" s="155"/>
-      <c r="E212" s="156"/>
-      <c r="F212" s="155"/>
-      <c r="G212" s="158"/>
+      <c r="C212" s="147"/>
+      <c r="G212" s="149"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C213" s="154"/>
-      <c r="D213" s="155"/>
-      <c r="E213" s="156"/>
-      <c r="F213" s="155"/>
-      <c r="G213" s="158"/>
+      <c r="C213" s="147"/>
+      <c r="G213" s="149"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C214" s="154"/>
-      <c r="D214" s="155"/>
-      <c r="E214" s="156"/>
-      <c r="F214" s="155"/>
-      <c r="G214" s="158"/>
+      <c r="C214" s="147"/>
+      <c r="G214" s="149"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C215" s="154"/>
-      <c r="D215" s="155"/>
-      <c r="E215" s="156"/>
-      <c r="F215" s="155"/>
-      <c r="G215" s="158"/>
+      <c r="C215" s="147"/>
+      <c r="G215" s="149"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C216" s="154"/>
-      <c r="D216" s="155"/>
-      <c r="E216" s="156"/>
-      <c r="F216" s="155"/>
-      <c r="G216" s="158"/>
+      <c r="C216" s="147"/>
+      <c r="G216" s="149"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C217" s="154"/>
-      <c r="D217" s="155"/>
-      <c r="E217" s="156"/>
-      <c r="F217" s="155"/>
-      <c r="G217" s="158"/>
+      <c r="C217" s="147"/>
+      <c r="G217" s="149"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C218" s="154"/>
-      <c r="D218" s="155"/>
-      <c r="E218" s="156"/>
-      <c r="F218" s="155"/>
-      <c r="G218" s="158"/>
+      <c r="C218" s="147"/>
+      <c r="G218" s="149"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C219" s="154"/>
-      <c r="D219" s="155"/>
-      <c r="E219" s="156"/>
-      <c r="F219" s="155"/>
-      <c r="G219" s="158"/>
+      <c r="C219" s="147"/>
+      <c r="G219" s="149"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C220" s="154"/>
-      <c r="D220" s="155"/>
-      <c r="E220" s="156"/>
-      <c r="F220" s="155"/>
-      <c r="G220" s="158"/>
+      <c r="C220" s="147"/>
+      <c r="G220" s="149"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C221" s="159"/>
-      <c r="D221" s="160"/>
-      <c r="E221" s="161"/>
-      <c r="F221" s="160"/>
-      <c r="G221" s="162"/>
+      <c r="C221" s="150"/>
+      <c r="D221" s="151"/>
+      <c r="E221" s="152"/>
+      <c r="F221" s="151"/>
+      <c r="G221" s="153"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="150"/>
-      <c r="C223" s="151"/>
-      <c r="D223" s="151"/>
-      <c r="E223" s="152"/>
-      <c r="F223" s="151"/>
-      <c r="G223" s="153"/>
+      <c r="B223" s="143"/>
+      <c r="C223" s="144"/>
+      <c r="D223" s="144"/>
+      <c r="E223" s="145"/>
+      <c r="F223" s="144"/>
+      <c r="G223" s="146"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B224" s="154"/>
-      <c r="C224" s="155"/>
-      <c r="D224" s="155"/>
-      <c r="E224" s="156"/>
-      <c r="F224" s="155"/>
-      <c r="G224" s="157" t="s">
+      <c r="B224" s="147"/>
+      <c r="G224" s="148" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="225" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B225" s="154"/>
-      <c r="C225" s="155"/>
-      <c r="D225" s="155"/>
-      <c r="E225" s="156"/>
-      <c r="F225" s="155"/>
-      <c r="G225" s="158" t="s">
+      <c r="B225" s="147"/>
+      <c r="G225" s="149" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B226" s="154"/>
-      <c r="C226" s="155"/>
-      <c r="D226" s="155"/>
-      <c r="E226" s="156"/>
-      <c r="F226" s="155"/>
-      <c r="G226" s="158"/>
+      <c r="B226" s="147"/>
+      <c r="G226" s="149"/>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B227" s="154"/>
-      <c r="C227" s="155"/>
-      <c r="D227" s="155"/>
-      <c r="E227" s="156"/>
-      <c r="F227" s="155"/>
-      <c r="G227" s="158"/>
+      <c r="B227" s="147"/>
+      <c r="G227" s="149"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B228" s="154"/>
-      <c r="C228" s="155"/>
-      <c r="D228" s="155"/>
-      <c r="E228" s="156"/>
-      <c r="F228" s="155"/>
-      <c r="G228" s="158"/>
+      <c r="B228" s="147"/>
+      <c r="G228" s="149"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B229" s="154"/>
-      <c r="C229" s="155"/>
-      <c r="D229" s="155"/>
-      <c r="E229" s="156"/>
-      <c r="F229" s="155"/>
-      <c r="G229" s="158"/>
+      <c r="B229" s="147"/>
+      <c r="G229" s="149"/>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B230" s="154"/>
-      <c r="C230" s="155"/>
-      <c r="D230" s="155"/>
-      <c r="E230" s="156"/>
-      <c r="F230" s="155"/>
-      <c r="G230" s="158"/>
+      <c r="B230" s="147"/>
+      <c r="G230" s="149"/>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B231" s="154"/>
-      <c r="C231" s="155"/>
-      <c r="D231" s="155"/>
-      <c r="E231" s="156"/>
-      <c r="F231" s="155"/>
-      <c r="G231" s="158"/>
+      <c r="B231" s="147"/>
+      <c r="G231" s="149"/>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B232" s="154"/>
-      <c r="C232" s="155"/>
-      <c r="D232" s="155"/>
-      <c r="E232" s="156"/>
-      <c r="F232" s="155"/>
-      <c r="G232" s="158"/>
+      <c r="B232" s="147"/>
+      <c r="G232" s="149"/>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B233" s="154"/>
-      <c r="C233" s="155"/>
-      <c r="D233" s="155"/>
-      <c r="E233" s="156"/>
-      <c r="F233" s="155"/>
-      <c r="G233" s="158"/>
+      <c r="B233" s="147"/>
+      <c r="G233" s="149"/>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B234" s="154"/>
-      <c r="C234" s="155"/>
-      <c r="D234" s="155"/>
-      <c r="E234" s="156"/>
-      <c r="F234" s="155"/>
-      <c r="G234" s="158"/>
+      <c r="B234" s="147"/>
+      <c r="G234" s="149"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="154"/>
-      <c r="C235" s="155"/>
-      <c r="D235" s="155"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="155"/>
-      <c r="G235" s="158"/>
+      <c r="B235" s="147"/>
+      <c r="G235" s="149"/>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B236" s="154"/>
-      <c r="C236" s="155"/>
-      <c r="D236" s="155"/>
-      <c r="E236" s="156"/>
-      <c r="F236" s="155"/>
-      <c r="G236" s="158"/>
+      <c r="B236" s="147"/>
+      <c r="G236" s="149"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B237" s="154"/>
-      <c r="C237" s="155"/>
-      <c r="D237" s="155"/>
-      <c r="E237" s="156"/>
-      <c r="F237" s="155"/>
-      <c r="G237" s="158"/>
+      <c r="B237" s="147"/>
+      <c r="G237" s="149"/>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B238" s="154"/>
-      <c r="C238" s="155"/>
-      <c r="D238" s="155"/>
-      <c r="E238" s="156"/>
-      <c r="F238" s="155"/>
-      <c r="G238" s="158"/>
+      <c r="B238" s="147"/>
+      <c r="G238" s="149"/>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B239" s="154"/>
-      <c r="C239" s="155"/>
-      <c r="D239" s="155"/>
-      <c r="E239" s="156"/>
-      <c r="F239" s="155"/>
-      <c r="G239" s="158"/>
+      <c r="B239" s="147"/>
+      <c r="G239" s="149"/>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B240" s="154"/>
-      <c r="C240" s="155"/>
-      <c r="D240" s="155"/>
-      <c r="E240" s="156"/>
-      <c r="F240" s="155"/>
-      <c r="G240" s="158"/>
+      <c r="B240" s="147"/>
+      <c r="G240" s="149"/>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="154"/>
-      <c r="C241" s="155"/>
-      <c r="D241" s="155"/>
-      <c r="E241" s="156"/>
-      <c r="F241" s="155"/>
-      <c r="G241" s="158"/>
+      <c r="B241" s="147"/>
+      <c r="G241" s="149"/>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B242" s="154"/>
-      <c r="C242" s="155"/>
-      <c r="D242" s="155"/>
-      <c r="E242" s="156"/>
-      <c r="F242" s="155"/>
-      <c r="G242" s="158"/>
+      <c r="B242" s="147"/>
+      <c r="G242" s="149"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B243" s="154"/>
-      <c r="C243" s="155"/>
-      <c r="D243" s="155"/>
-      <c r="E243" s="156"/>
-      <c r="F243" s="155"/>
-      <c r="G243" s="158"/>
+      <c r="B243" s="147"/>
+      <c r="G243" s="149"/>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B244" s="154"/>
-      <c r="C244" s="155"/>
-      <c r="D244" s="155"/>
-      <c r="E244" s="156"/>
-      <c r="F244" s="155"/>
-      <c r="G244" s="158"/>
+      <c r="B244" s="147"/>
+      <c r="G244" s="149"/>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B245" s="154"/>
-      <c r="C245" s="155"/>
-      <c r="D245" s="155"/>
-      <c r="E245" s="156"/>
-      <c r="F245" s="155"/>
-      <c r="G245" s="158"/>
+      <c r="B245" s="147"/>
+      <c r="G245" s="149"/>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B246" s="154"/>
-      <c r="C246" s="155"/>
-      <c r="D246" s="155"/>
-      <c r="E246" s="156"/>
-      <c r="F246" s="155"/>
-      <c r="G246" s="158"/>
+      <c r="B246" s="147"/>
+      <c r="G246" s="149"/>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B247" s="154"/>
-      <c r="C247" s="155"/>
-      <c r="D247" s="155"/>
-      <c r="E247" s="156"/>
-      <c r="F247" s="155"/>
-      <c r="G247" s="158"/>
+      <c r="B247" s="147"/>
+      <c r="G247" s="149"/>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B248" s="154"/>
-      <c r="C248" s="155"/>
-      <c r="D248" s="155"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="155"/>
-      <c r="G248" s="158"/>
+      <c r="B248" s="147"/>
+      <c r="G248" s="149"/>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B249" s="154"/>
-      <c r="C249" s="155"/>
-      <c r="D249" s="155"/>
-      <c r="E249" s="156"/>
-      <c r="F249" s="155"/>
-      <c r="G249" s="158"/>
+      <c r="B249" s="147"/>
+      <c r="G249" s="149"/>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B250" s="154"/>
-      <c r="C250" s="155"/>
-      <c r="D250" s="155"/>
-      <c r="E250" s="156"/>
-      <c r="F250" s="155"/>
-      <c r="G250" s="158"/>
+      <c r="B250" s="147"/>
+      <c r="G250" s="149"/>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B251" s="154"/>
-      <c r="C251" s="155"/>
-      <c r="D251" s="155"/>
-      <c r="E251" s="156"/>
-      <c r="F251" s="155"/>
-      <c r="G251" s="158"/>
+      <c r="B251" s="147"/>
+      <c r="G251" s="149"/>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B252" s="154"/>
-      <c r="C252" s="155"/>
-      <c r="D252" s="155"/>
-      <c r="E252" s="156"/>
-      <c r="F252" s="155"/>
-      <c r="G252" s="158"/>
+      <c r="B252" s="147"/>
+      <c r="G252" s="149"/>
     </row>
     <row r="253" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="159"/>
-      <c r="C253" s="160"/>
-      <c r="D253" s="160"/>
-      <c r="E253" s="161"/>
-      <c r="F253" s="160"/>
-      <c r="G253" s="162"/>
+      <c r="B253" s="150"/>
+      <c r="C253" s="151"/>
+      <c r="D253" s="151"/>
+      <c r="E253" s="152"/>
+      <c r="F253" s="151"/>
+      <c r="G253" s="153"/>
     </row>
     <row r="254" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C255" s="150"/>
-      <c r="D255" s="151"/>
-      <c r="E255" s="152"/>
-      <c r="F255" s="151"/>
-      <c r="G255" s="153"/>
+      <c r="C255" s="143"/>
+      <c r="D255" s="144"/>
+      <c r="E255" s="145"/>
+      <c r="F255" s="144"/>
+      <c r="G255" s="146"/>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C256" s="154"/>
-      <c r="D256" s="155"/>
-      <c r="E256" s="156"/>
-      <c r="F256" s="155"/>
-      <c r="G256" s="157" t="s">
+      <c r="C256" s="147"/>
+      <c r="G256" s="148" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="257" spans="3:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="C257" s="154"/>
-      <c r="D257" s="155"/>
-      <c r="E257" s="156"/>
-      <c r="F257" s="155"/>
-      <c r="G257" s="158" t="s">
+      <c r="C257" s="147"/>
+      <c r="G257" s="149" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C258" s="154"/>
-      <c r="D258" s="155"/>
-      <c r="E258" s="156"/>
-      <c r="F258" s="155"/>
-      <c r="G258" s="158"/>
+      <c r="C258" s="147"/>
+      <c r="G258" s="149"/>
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C259" s="154"/>
-      <c r="D259" s="155"/>
-      <c r="E259" s="156"/>
-      <c r="F259" s="155"/>
-      <c r="G259" s="158"/>
+      <c r="C259" s="147"/>
+      <c r="G259" s="149"/>
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C260" s="154"/>
-      <c r="D260" s="155"/>
-      <c r="E260" s="156"/>
-      <c r="F260" s="155"/>
-      <c r="G260" s="158"/>
+      <c r="C260" s="147"/>
+      <c r="G260" s="149"/>
     </row>
     <row r="261" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C261" s="154"/>
-      <c r="D261" s="155"/>
-      <c r="E261" s="156"/>
-      <c r="F261" s="155"/>
-      <c r="G261" s="158"/>
+      <c r="C261" s="147"/>
+      <c r="G261" s="149"/>
     </row>
     <row r="262" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C262" s="154"/>
-      <c r="D262" s="155"/>
-      <c r="E262" s="156"/>
-      <c r="F262" s="155"/>
-      <c r="G262" s="158"/>
+      <c r="C262" s="147"/>
+      <c r="G262" s="149"/>
     </row>
     <row r="263" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C263" s="154"/>
-      <c r="D263" s="155"/>
-      <c r="E263" s="156"/>
-      <c r="F263" s="155"/>
-      <c r="G263" s="158"/>
+      <c r="C263" s="147"/>
+      <c r="G263" s="149"/>
     </row>
     <row r="264" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C264" s="154"/>
-      <c r="D264" s="155"/>
-      <c r="E264" s="156"/>
-      <c r="F264" s="155"/>
-      <c r="G264" s="158"/>
+      <c r="C264" s="147"/>
+      <c r="G264" s="149"/>
     </row>
     <row r="265" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C265" s="154"/>
-      <c r="D265" s="155"/>
-      <c r="E265" s="156"/>
-      <c r="F265" s="155"/>
-      <c r="G265" s="158"/>
+      <c r="C265" s="147"/>
+      <c r="G265" s="149"/>
     </row>
     <row r="266" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C266" s="154"/>
-      <c r="D266" s="155"/>
-      <c r="E266" s="156"/>
-      <c r="F266" s="155"/>
-      <c r="G266" s="158"/>
+      <c r="C266" s="147"/>
+      <c r="G266" s="149"/>
     </row>
     <row r="267" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C267" s="154"/>
-      <c r="D267" s="155"/>
-      <c r="E267" s="156"/>
-      <c r="F267" s="155"/>
-      <c r="G267" s="158"/>
+      <c r="C267" s="147"/>
+      <c r="G267" s="149"/>
     </row>
     <row r="268" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C268" s="154"/>
-      <c r="D268" s="155"/>
-      <c r="E268" s="156"/>
-      <c r="F268" s="155"/>
-      <c r="G268" s="158"/>
+      <c r="C268" s="147"/>
+      <c r="G268" s="149"/>
     </row>
     <row r="269" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C269" s="159"/>
-      <c r="D269" s="160"/>
-      <c r="E269" s="161"/>
-      <c r="F269" s="160"/>
-      <c r="G269" s="162"/>
+      <c r="C269" s="150"/>
+      <c r="D269" s="151"/>
+      <c r="E269" s="152"/>
+      <c r="F269" s="151"/>
+      <c r="G269" s="153"/>
     </row>
     <row r="270" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="271" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C271" s="150"/>
-      <c r="D271" s="151"/>
-      <c r="E271" s="152"/>
-      <c r="F271" s="151"/>
-      <c r="G271" s="153"/>
+      <c r="C271" s="143"/>
+      <c r="D271" s="144"/>
+      <c r="E271" s="145"/>
+      <c r="F271" s="144"/>
+      <c r="G271" s="146"/>
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C272" s="154"/>
-      <c r="D272" s="155"/>
-      <c r="E272" s="156"/>
-      <c r="F272" s="155"/>
-      <c r="G272" s="157" t="s">
+      <c r="C272" s="147"/>
+      <c r="G272" s="148" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="273" spans="3:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C273" s="154"/>
-      <c r="D273" s="155"/>
-      <c r="E273" s="156"/>
-      <c r="F273" s="155"/>
-      <c r="G273" s="158" t="s">
+      <c r="C273" s="147"/>
+      <c r="G273" s="149" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C274" s="154"/>
-      <c r="D274" s="155"/>
-      <c r="E274" s="156"/>
-      <c r="F274" s="155"/>
-      <c r="G274" s="158"/>
+      <c r="C274" s="147"/>
+      <c r="G274" s="149"/>
     </row>
     <row r="275" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C275" s="154"/>
-      <c r="D275" s="155"/>
-      <c r="E275" s="156"/>
-      <c r="F275" s="155"/>
-      <c r="G275" s="158"/>
+      <c r="C275" s="147"/>
+      <c r="G275" s="149"/>
     </row>
     <row r="276" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C276" s="154"/>
-      <c r="D276" s="155"/>
-      <c r="E276" s="156"/>
-      <c r="F276" s="155"/>
-      <c r="G276" s="158"/>
+      <c r="C276" s="147"/>
+      <c r="G276" s="149"/>
     </row>
     <row r="277" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C277" s="154"/>
-      <c r="D277" s="155"/>
-      <c r="E277" s="156"/>
-      <c r="F277" s="155"/>
-      <c r="G277" s="158"/>
+      <c r="C277" s="147"/>
+      <c r="G277" s="149"/>
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C278" s="154"/>
-      <c r="D278" s="155"/>
-      <c r="E278" s="156"/>
-      <c r="F278" s="155"/>
-      <c r="G278" s="158"/>
+      <c r="C278" s="147"/>
+      <c r="G278" s="149"/>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C279" s="154"/>
-      <c r="D279" s="155"/>
-      <c r="E279" s="156"/>
-      <c r="F279" s="155"/>
-      <c r="G279" s="158"/>
+      <c r="C279" s="147"/>
+      <c r="G279" s="149"/>
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C280" s="154"/>
-      <c r="D280" s="155"/>
-      <c r="E280" s="156"/>
-      <c r="F280" s="155"/>
-      <c r="G280" s="158"/>
+      <c r="C280" s="147"/>
+      <c r="G280" s="149"/>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C281" s="154"/>
-      <c r="D281" s="155"/>
-      <c r="E281" s="156"/>
-      <c r="F281" s="155"/>
-      <c r="G281" s="158"/>
+      <c r="C281" s="147"/>
+      <c r="G281" s="149"/>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C282" s="154"/>
-      <c r="D282" s="155"/>
-      <c r="E282" s="156"/>
-      <c r="F282" s="155"/>
-      <c r="G282" s="158"/>
+      <c r="C282" s="147"/>
+      <c r="G282" s="149"/>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C283" s="154"/>
-      <c r="D283" s="155"/>
-      <c r="E283" s="156"/>
-      <c r="F283" s="155"/>
-      <c r="G283" s="158"/>
+      <c r="C283" s="147"/>
+      <c r="G283" s="149"/>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C284" s="154"/>
-      <c r="D284" s="155"/>
-      <c r="E284" s="156"/>
-      <c r="F284" s="155"/>
-      <c r="G284" s="158"/>
+      <c r="C284" s="147"/>
+      <c r="G284" s="149"/>
     </row>
     <row r="285" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C285" s="154"/>
-      <c r="D285" s="155"/>
-      <c r="E285" s="156"/>
-      <c r="F285" s="155"/>
-      <c r="G285" s="158"/>
+      <c r="C285" s="147"/>
+      <c r="G285" s="149"/>
     </row>
     <row r="286" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C286" s="154"/>
-      <c r="D286" s="155"/>
-      <c r="E286" s="156"/>
-      <c r="F286" s="155"/>
-      <c r="G286" s="158"/>
+      <c r="C286" s="147"/>
+      <c r="G286" s="149"/>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C287" s="154"/>
-      <c r="D287" s="155"/>
-      <c r="E287" s="156"/>
-      <c r="F287" s="155"/>
-      <c r="G287" s="158"/>
+      <c r="C287" s="147"/>
+      <c r="G287" s="149"/>
     </row>
     <row r="288" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C288" s="154"/>
-      <c r="D288" s="155"/>
-      <c r="E288" s="156"/>
-      <c r="F288" s="155"/>
-      <c r="G288" s="158"/>
+      <c r="C288" s="147"/>
+      <c r="G288" s="149"/>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C289" s="154"/>
-      <c r="D289" s="155"/>
-      <c r="E289" s="156"/>
-      <c r="F289" s="155"/>
-      <c r="G289" s="158"/>
+      <c r="C289" s="147"/>
+      <c r="G289" s="149"/>
     </row>
     <row r="290" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C290" s="159"/>
-      <c r="D290" s="160"/>
-      <c r="E290" s="161"/>
-      <c r="F290" s="160"/>
-      <c r="G290" s="162"/>
+      <c r="C290" s="150"/>
+      <c r="D290" s="151"/>
+      <c r="E290" s="152"/>
+      <c r="F290" s="151"/>
+      <c r="G290" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15508,8 +15471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57802088-BD8E-4531-9905-F0A5E1230419}">
   <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D183"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15551,7 +15514,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -18338,7 +18301,7 @@
       <c r="F183" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="G183" s="164" t="s">
+      <c r="G183" s="155" t="s">
         <v>367</v>
       </c>
     </row>
@@ -18439,7 +18402,7 @@
     <col min="10" max="10" width="55.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>1010</v>
       </c>
@@ -20759,7 +20722,7 @@
       <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="159" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="39" t="s">
@@ -20777,7 +20740,7 @@
       <c r="D10" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="143"/>
+      <c r="E10" s="159"/>
       <c r="F10" s="6" t="s">
         <v>816</v>
       </c>
@@ -23650,7 +23613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8977D390-2627-4FB3-9E84-A130BD2CFC4C}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -27055,21 +27018,21 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="160" t="s">
         <v>973</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="160" t="s">
         <v>974</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="162" t="s">
         <v>771</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="104" t="s">
         <v>473</v>
       </c>
@@ -27133,7 +27096,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>799</v>
       </c>
